--- a/designs/designs.xlsx
+++ b/designs/designs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofcambridgecloud-my.sharepoint.com/personal/amp212_cam_ac_uk/Documents/Sakura/IIA/CX/GA3 Heat Exchangers/GA3-Project/designs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="204" documentId="11_F25DC773A252ABDACC10488E611847AE5BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6255F222-A8E6-4081-A814-D863E2AAD7D4}"/>
+  <xr:revisionPtr revIDLastSave="232" documentId="11_F25DC773A252ABDACC10488E611847AE5BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E4A0DC4-115D-44B5-9880-014A60C1D403}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>Year</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
   <si>
     <t>Group</t>
   </si>
@@ -89,6 +86,54 @@
   </si>
   <si>
     <t>Pitch</t>
+  </si>
+  <si>
+    <t>across_c</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>2017_A</t>
+  </si>
+  <si>
+    <t>2017_B</t>
+  </si>
+  <si>
+    <t>2017_C</t>
+  </si>
+  <si>
+    <t>2017_D</t>
+  </si>
+  <si>
+    <t>2017_E</t>
+  </si>
+  <si>
+    <t>2018_A</t>
+  </si>
+  <si>
+    <t>2018_B</t>
+  </si>
+  <si>
+    <t>2018_C</t>
+  </si>
+  <si>
+    <t>2022_A</t>
+  </si>
+  <si>
+    <t>2022_B</t>
+  </si>
+  <si>
+    <t>2022_C</t>
+  </si>
+  <si>
+    <t>2022_D</t>
+  </si>
+  <si>
+    <t>2022_E</t>
+  </si>
+  <si>
+    <t>2022_F</t>
   </si>
 </sst>
 </file>
@@ -406,34 +451,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.06640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.9296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.53125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.06640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.9296875" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.06640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.9296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.53125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.06640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -444,10 +488,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -485,8 +529,750 @@
       <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>261</v>
+      </c>
+      <c r="F2">
+        <v>41</v>
+      </c>
+      <c r="G2">
+        <v>41</v>
+      </c>
+      <c r="H2">
+        <v>15.75</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>45</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>34</v>
+      </c>
+      <c r="O2">
+        <v>34</v>
+      </c>
+      <c r="P2">
+        <v>2017</v>
+      </c>
+      <c r="Q2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>235.3</v>
+      </c>
+      <c r="F3">
+        <v>41</v>
+      </c>
+      <c r="G3">
+        <v>23</v>
+      </c>
+      <c r="H3">
+        <v>25.6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>55</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>33</v>
+      </c>
+      <c r="O3">
         <v>16</v>
+      </c>
+      <c r="P3">
+        <v>2017</v>
+      </c>
+      <c r="Q3">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>192</v>
+      </c>
+      <c r="F4">
+        <v>41</v>
+      </c>
+      <c r="G4">
+        <v>24</v>
+      </c>
+      <c r="H4">
+        <v>15.75</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>42</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>32</v>
+      </c>
+      <c r="O4">
+        <v>32</v>
+      </c>
+      <c r="P4">
+        <v>2017</v>
+      </c>
+      <c r="Q4">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>147</v>
+      </c>
+      <c r="F5">
+        <v>41</v>
+      </c>
+      <c r="G5">
+        <v>24</v>
+      </c>
+      <c r="H5">
+        <v>15.75</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>58</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>32</v>
+      </c>
+      <c r="O5">
+        <v>32</v>
+      </c>
+      <c r="P5">
+        <v>2017</v>
+      </c>
+      <c r="Q5">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>132</v>
+      </c>
+      <c r="F6">
+        <v>31</v>
+      </c>
+      <c r="G6">
+        <v>24</v>
+      </c>
+      <c r="H6">
+        <v>15.8</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>60</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <v>32</v>
+      </c>
+      <c r="O6">
+        <v>32</v>
+      </c>
+      <c r="P6">
+        <v>2017</v>
+      </c>
+      <c r="Q6">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <v>141</v>
+      </c>
+      <c r="F7">
+        <v>53</v>
+      </c>
+      <c r="G7">
+        <v>24</v>
+      </c>
+      <c r="H7">
+        <v>18.920000000000002</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>58</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7">
+        <v>26.7</v>
+      </c>
+      <c r="O7">
+        <v>26.7</v>
+      </c>
+      <c r="P7">
+        <v>2018</v>
+      </c>
+      <c r="Q7">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>130</v>
+      </c>
+      <c r="F8">
+        <v>53</v>
+      </c>
+      <c r="G8">
+        <v>24</v>
+      </c>
+      <c r="H8">
+        <f>31.75-13</f>
+        <v>18.75</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <f>21.75*2</f>
+        <v>43.5</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <v>45</v>
+      </c>
+      <c r="O8">
+        <v>45</v>
+      </c>
+      <c r="P8">
+        <v>2018</v>
+      </c>
+      <c r="Q8">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>156</v>
+      </c>
+      <c r="F9">
+        <v>53</v>
+      </c>
+      <c r="G9">
+        <v>24</v>
+      </c>
+      <c r="H9">
+        <f>32-17</f>
+        <v>15</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>57</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>42</v>
+      </c>
+      <c r="O9">
+        <v>42</v>
+      </c>
+      <c r="P9">
+        <v>2018</v>
+      </c>
+      <c r="Q9">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>14</v>
+      </c>
+      <c r="E10">
+        <v>236</v>
+      </c>
+      <c r="F10">
+        <v>51</v>
+      </c>
+      <c r="G10">
+        <v>51</v>
+      </c>
+      <c r="H10">
+        <v>12</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>56</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>39.15</v>
+      </c>
+      <c r="O10">
+        <v>39.15</v>
+      </c>
+      <c r="P10">
+        <v>2022</v>
+      </c>
+      <c r="Q10">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>219</v>
+      </c>
+      <c r="F11">
+        <v>50</v>
+      </c>
+      <c r="G11">
+        <v>50</v>
+      </c>
+      <c r="H11">
+        <v>17.22</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>52</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>39.5</v>
+      </c>
+      <c r="O11">
+        <v>39.5</v>
+      </c>
+      <c r="P11">
+        <v>2022</v>
+      </c>
+      <c r="Q11">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>174</v>
+      </c>
+      <c r="F12">
+        <v>50</v>
+      </c>
+      <c r="G12">
+        <v>46.5</v>
+      </c>
+      <c r="H12">
+        <v>9.75</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>60</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12">
+        <v>39</v>
+      </c>
+      <c r="O12">
+        <v>39</v>
+      </c>
+      <c r="P12">
+        <v>2022</v>
+      </c>
+      <c r="Q12">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>259</v>
+      </c>
+      <c r="F13">
+        <v>53</v>
+      </c>
+      <c r="G13">
+        <v>30</v>
+      </c>
+      <c r="H13">
+        <v>15.36</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>52</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13">
+        <v>49</v>
+      </c>
+      <c r="O13">
+        <v>49</v>
+      </c>
+      <c r="P13">
+        <v>2022</v>
+      </c>
+      <c r="Q13">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14">
+        <v>24</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>145</v>
+      </c>
+      <c r="F14">
+        <v>53</v>
+      </c>
+      <c r="G14">
+        <v>41</v>
+      </c>
+      <c r="H14">
+        <v>16.3</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>62.5</v>
+      </c>
+      <c r="M14">
+        <v>4</v>
+      </c>
+      <c r="N14">
+        <v>40</v>
+      </c>
+      <c r="O14">
+        <v>40</v>
+      </c>
+      <c r="P14">
+        <v>2022</v>
+      </c>
+      <c r="Q14">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>172</v>
+      </c>
+      <c r="F15">
+        <v>58</v>
+      </c>
+      <c r="G15">
+        <v>23</v>
+      </c>
+      <c r="H15">
+        <v>20</v>
+      </c>
+      <c r="I15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>55</v>
+      </c>
+      <c r="M15">
+        <v>4</v>
+      </c>
+      <c r="N15">
+        <v>41.5</v>
+      </c>
+      <c r="O15">
+        <v>21.5</v>
+      </c>
+      <c r="P15">
+        <v>2022</v>
+      </c>
+      <c r="Q15">
+        <v>2022</v>
       </c>
     </row>
   </sheetData>

--- a/designs/designs.xlsx
+++ b/designs/designs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofcambridgecloud-my.sharepoint.com/personal/amp212_cam_ac_uk/Documents/Sakura/IIA/CX/GA3 Heat Exchangers/GA3-Project/designs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofcambridgecloud-my.sharepoint.com/personal/tbt24_cam_ac_uk/Documents/Engineering Tripos/Part IIA/GA3 Project/designs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="232" documentId="11_F25DC773A252ABDACC10488E611847AE5BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E4A0DC4-115D-44B5-9880-014A60C1D403}"/>
+  <xr:revisionPtr revIDLastSave="245" documentId="11_F25DC773A252ABDACC10488E611847AE5BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDB84B8F-D928-49FE-AA33-9DEA723C9335}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="10725" yWindow="-13800" windowWidth="16755" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="37">
   <si>
     <t>Group</t>
   </si>
@@ -134,6 +134,18 @@
   </si>
   <si>
     <t>2022_F</t>
+  </si>
+  <si>
+    <t>t in hot</t>
+  </si>
+  <si>
+    <t>t in cold</t>
+  </si>
+  <si>
+    <t>real_data</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
 </sst>
 </file>
@@ -451,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -471,13 +483,14 @@
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.19921875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.265625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.06640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.06640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="7.46484375" customWidth="1"/>
+    <col min="18" max="18" width="13.796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -518,19 +531,28 @@
         <v>11</v>
       </c>
       <c r="N1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>15</v>
+      <c r="T1" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -571,19 +593,28 @@
         <v>1</v>
       </c>
       <c r="N2">
+        <v>2017</v>
+      </c>
+      <c r="O2">
+        <v>2017</v>
+      </c>
+      <c r="P2">
+        <v>60</v>
+      </c>
+      <c r="Q2">
+        <v>20</v>
+      </c>
+      <c r="R2">
         <v>34</v>
       </c>
-      <c r="O2">
+      <c r="S2">
         <v>34</v>
       </c>
-      <c r="P2">
-        <v>2017</v>
-      </c>
-      <c r="Q2">
-        <v>2017</v>
+      <c r="T2" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -624,19 +655,28 @@
         <v>2</v>
       </c>
       <c r="N3">
+        <v>2017</v>
+      </c>
+      <c r="O3">
+        <v>2017</v>
+      </c>
+      <c r="P3">
+        <v>60</v>
+      </c>
+      <c r="Q3">
+        <v>20</v>
+      </c>
+      <c r="R3">
         <v>33</v>
       </c>
-      <c r="O3">
+      <c r="S3">
         <v>16</v>
       </c>
-      <c r="P3">
-        <v>2017</v>
-      </c>
-      <c r="Q3">
-        <v>2017</v>
+      <c r="T3" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -677,19 +717,28 @@
         <v>2</v>
       </c>
       <c r="N4">
+        <v>2017</v>
+      </c>
+      <c r="O4">
+        <v>2017</v>
+      </c>
+      <c r="P4">
+        <v>60</v>
+      </c>
+      <c r="Q4">
+        <v>20</v>
+      </c>
+      <c r="R4">
         <v>32</v>
       </c>
-      <c r="O4">
+      <c r="S4">
         <v>32</v>
       </c>
-      <c r="P4">
-        <v>2017</v>
-      </c>
-      <c r="Q4">
-        <v>2017</v>
+      <c r="T4" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -730,19 +779,28 @@
         <v>2</v>
       </c>
       <c r="N5">
+        <v>2017</v>
+      </c>
+      <c r="O5">
+        <v>2017</v>
+      </c>
+      <c r="P5">
+        <v>60</v>
+      </c>
+      <c r="Q5">
+        <v>20</v>
+      </c>
+      <c r="R5">
         <v>32</v>
       </c>
-      <c r="O5">
+      <c r="S5">
         <v>32</v>
       </c>
-      <c r="P5">
-        <v>2017</v>
-      </c>
-      <c r="Q5">
-        <v>2017</v>
+      <c r="T5" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -783,19 +841,28 @@
         <v>2</v>
       </c>
       <c r="N6">
+        <v>2017</v>
+      </c>
+      <c r="O6">
+        <v>2017</v>
+      </c>
+      <c r="P6">
+        <v>60</v>
+      </c>
+      <c r="Q6">
+        <v>20</v>
+      </c>
+      <c r="R6">
         <v>32</v>
       </c>
-      <c r="O6">
+      <c r="S6">
         <v>32</v>
       </c>
-      <c r="P6">
-        <v>2017</v>
-      </c>
-      <c r="Q6">
-        <v>2017</v>
+      <c r="T6" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -836,19 +903,28 @@
         <v>4</v>
       </c>
       <c r="N7">
+        <v>2018</v>
+      </c>
+      <c r="O7">
+        <v>2018</v>
+      </c>
+      <c r="P7">
+        <v>60</v>
+      </c>
+      <c r="Q7">
+        <v>20</v>
+      </c>
+      <c r="R7">
         <v>26.7</v>
       </c>
-      <c r="O7">
+      <c r="S7">
         <v>26.7</v>
       </c>
-      <c r="P7">
-        <v>2018</v>
-      </c>
-      <c r="Q7">
-        <v>2018</v>
+      <c r="T7" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -891,19 +967,28 @@
         <v>2</v>
       </c>
       <c r="N8">
+        <v>2018</v>
+      </c>
+      <c r="O8">
+        <v>2018</v>
+      </c>
+      <c r="P8">
+        <v>60</v>
+      </c>
+      <c r="Q8">
+        <v>20</v>
+      </c>
+      <c r="R8">
         <v>45</v>
       </c>
-      <c r="O8">
+      <c r="S8">
         <v>45</v>
       </c>
-      <c r="P8">
-        <v>2018</v>
-      </c>
-      <c r="Q8">
-        <v>2018</v>
+      <c r="T8" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -945,19 +1030,28 @@
         <v>2</v>
       </c>
       <c r="N9">
+        <v>2018</v>
+      </c>
+      <c r="O9">
+        <v>2018</v>
+      </c>
+      <c r="P9">
+        <v>60</v>
+      </c>
+      <c r="Q9">
+        <v>20</v>
+      </c>
+      <c r="R9">
         <v>42</v>
       </c>
-      <c r="O9">
+      <c r="S9">
         <v>42</v>
       </c>
-      <c r="P9">
-        <v>2018</v>
-      </c>
-      <c r="Q9">
-        <v>2018</v>
+      <c r="T9" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -998,19 +1092,28 @@
         <v>1</v>
       </c>
       <c r="N10">
+        <v>2022</v>
+      </c>
+      <c r="O10">
+        <v>2022</v>
+      </c>
+      <c r="P10">
+        <v>60</v>
+      </c>
+      <c r="Q10">
+        <v>20</v>
+      </c>
+      <c r="R10">
         <v>39.15</v>
       </c>
-      <c r="O10">
+      <c r="S10">
         <v>39.15</v>
       </c>
-      <c r="P10">
-        <v>2022</v>
-      </c>
-      <c r="Q10">
-        <v>2022</v>
+      <c r="T10" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -1051,19 +1154,28 @@
         <v>1</v>
       </c>
       <c r="N11">
+        <v>2022</v>
+      </c>
+      <c r="O11">
+        <v>2022</v>
+      </c>
+      <c r="P11">
+        <v>60</v>
+      </c>
+      <c r="Q11">
+        <v>20</v>
+      </c>
+      <c r="R11">
         <v>39.5</v>
       </c>
-      <c r="O11">
+      <c r="S11">
         <v>39.5</v>
       </c>
-      <c r="P11">
-        <v>2022</v>
-      </c>
-      <c r="Q11">
-        <v>2022</v>
+      <c r="T11" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -1104,19 +1216,28 @@
         <v>2</v>
       </c>
       <c r="N12">
+        <v>2022</v>
+      </c>
+      <c r="O12">
+        <v>2022</v>
+      </c>
+      <c r="P12">
+        <v>60</v>
+      </c>
+      <c r="Q12">
+        <v>20</v>
+      </c>
+      <c r="R12">
         <v>39</v>
       </c>
-      <c r="O12">
+      <c r="S12">
         <v>39</v>
       </c>
-      <c r="P12">
-        <v>2022</v>
-      </c>
-      <c r="Q12">
-        <v>2022</v>
+      <c r="T12" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -1157,19 +1278,28 @@
         <v>2</v>
       </c>
       <c r="N13">
+        <v>2022</v>
+      </c>
+      <c r="O13">
+        <v>2022</v>
+      </c>
+      <c r="P13">
+        <v>60</v>
+      </c>
+      <c r="Q13">
+        <v>20</v>
+      </c>
+      <c r="R13">
         <v>49</v>
       </c>
-      <c r="O13">
+      <c r="S13">
         <v>49</v>
       </c>
-      <c r="P13">
-        <v>2022</v>
-      </c>
-      <c r="Q13">
-        <v>2022</v>
+      <c r="T13" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1210,19 +1340,28 @@
         <v>4</v>
       </c>
       <c r="N14">
+        <v>2022</v>
+      </c>
+      <c r="O14">
+        <v>2022</v>
+      </c>
+      <c r="P14">
+        <v>60</v>
+      </c>
+      <c r="Q14">
+        <v>20</v>
+      </c>
+      <c r="R14">
         <v>40</v>
       </c>
-      <c r="O14">
+      <c r="S14">
         <v>40</v>
       </c>
-      <c r="P14">
-        <v>2022</v>
-      </c>
-      <c r="Q14">
-        <v>2022</v>
+      <c r="T14" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -1263,16 +1402,25 @@
         <v>4</v>
       </c>
       <c r="N15">
+        <v>2022</v>
+      </c>
+      <c r="O15">
+        <v>2022</v>
+      </c>
+      <c r="P15">
+        <v>60</v>
+      </c>
+      <c r="Q15">
+        <v>20</v>
+      </c>
+      <c r="R15">
         <v>41.5</v>
       </c>
-      <c r="O15">
+      <c r="S15">
         <v>21.5</v>
       </c>
-      <c r="P15">
-        <v>2022</v>
-      </c>
-      <c r="Q15">
-        <v>2022</v>
+      <c r="T15" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
